--- a/data_quarter/zb/价格指数/固定资产投资价格指数_当季（上年同季=100）(-2018).xlsx
+++ b/data_quarter/zb/价格指数/固定资产投资价格指数_当季（上年同季=100）(-2018).xlsx
@@ -508,7 +508,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年第二季度</t>
+          <t>2000年B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -537,7 +537,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年第四季度</t>
+          <t>2000年D</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -566,7 +566,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2001年第二季度</t>
+          <t>2001年B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -595,7 +595,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2001年第四季度</t>
+          <t>2001年D</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -624,7 +624,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2002年第二季度</t>
+          <t>2002年B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -653,7 +653,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2002年第四季度</t>
+          <t>2002年D</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -682,7 +682,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2003年第一季度</t>
+          <t>2003年A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -711,7 +711,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2003年第三季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -721,11 +721,11 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>102.4</v>
+        <v>101.4</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>104.7</v>
+        <v>102.9</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -733,14 +733,14 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -750,11 +750,11 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>101.4</v>
+        <v>102.4</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>102.9</v>
+        <v>104.7</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -762,14 +762,14 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2003年第四季度</t>
+          <t>2003年D</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -798,7 +798,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -827,21 +827,21 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>103.7</v>
+        <v>102.9</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>104.7</v>
+        <v>106.1</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>106.7</v>
+        <v>109.2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -849,28 +849,28 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>102.9</v>
+        <v>103.7</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>106.1</v>
+        <v>104.7</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>109.2</v>
+        <v>106.7</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -878,14 +878,14 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -914,7 +914,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -943,17 +943,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
@@ -965,24 +965,24 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
@@ -994,14 +994,14 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1030,7 +1030,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1059,21 +1059,21 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>103.12</v>
+        <v>103.3</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>102.16</v>
+        <v>101.4</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>102.26</v>
+        <v>101.1</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1081,28 +1081,28 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>101.1</v>
+        <v>100.5</v>
       </c>
       <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>103.3</v>
+        <v>103.12</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>101.4</v>
+        <v>102.16</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>101.1</v>
+        <v>102.26</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1110,14 +1110,14 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>100.5</v>
+        <v>101.1</v>
       </c>
       <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1175,21 +1175,21 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>104.6</v>
+        <v>103.9</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>104</v>
+        <v>103.5</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>105.3</v>
+        <v>104.6</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1197,28 +1197,28 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>103.9</v>
+        <v>104.6</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>103.5</v>
+        <v>104</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>104.6</v>
+        <v>105.3</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1226,14 +1226,14 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1262,7 +1262,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1291,21 +1291,21 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>105.9</v>
+        <v>105.2</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>111.1</v>
+        <v>111.3</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>116.2</v>
+        <v>116.7</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1313,28 +1313,28 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>100.6</v>
+        <v>100.9</v>
       </c>
       <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>105.2</v>
+        <v>105.9</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>111.3</v>
+        <v>111.1</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>116.7</v>
+        <v>116.2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1342,14 +1342,14 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>100.9</v>
+        <v>100.6</v>
       </c>
       <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1378,7 +1378,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1407,21 +1407,21 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>102.5</v>
+        <v>101.9</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>96.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>94.7</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1429,28 +1429,28 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>96.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>101.9</v>
+        <v>102.5</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>96.09999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>94.09999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1458,14 +1458,14 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>97.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1494,7 +1494,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1543,11 +1543,11 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>109.9</v>
+        <v>107.9</v>
       </c>
       <c r="C37" t="n">
         <v>102.7</v>
@@ -1556,47 +1556,47 @@
         <v>103.2</v>
       </c>
       <c r="E37" t="n">
-        <v>104.9</v>
+        <v>106.8</v>
       </c>
       <c r="F37" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="G37" t="n">
-        <v>103.4</v>
+        <v>102.5</v>
       </c>
       <c r="H37" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="I37" t="n">
-        <v>103.2</v>
+        <v>105.3</v>
       </c>
       <c r="J37" t="n">
-        <v>102.6</v>
+        <v>102.4</v>
       </c>
       <c r="K37" t="n">
-        <v>103.8</v>
+        <v>104.5</v>
       </c>
       <c r="L37" t="n">
-        <v>102.5</v>
+        <v>100.7</v>
       </c>
       <c r="M37" t="n">
-        <v>104.1</v>
+        <v>103</v>
       </c>
       <c r="N37" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="O37" t="n">
-        <v>104.4</v>
+        <v>106.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>107.9</v>
+        <v>109.9</v>
       </c>
       <c r="C38" t="n">
         <v>102.7</v>
@@ -1605,43 +1605,43 @@
         <v>103.2</v>
       </c>
       <c r="E38" t="n">
-        <v>106.8</v>
+        <v>104.9</v>
       </c>
       <c r="F38" t="n">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="G38" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="I38" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="K38" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="L38" t="n">
         <v>102.5</v>
       </c>
-      <c r="H38" t="n">
-        <v>104.8</v>
-      </c>
-      <c r="I38" t="n">
-        <v>105.3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="K38" t="n">
-        <v>104.5</v>
-      </c>
-      <c r="L38" t="n">
-        <v>100.7</v>
-      </c>
       <c r="M38" t="n">
-        <v>103</v>
+        <v>104.1</v>
       </c>
       <c r="N38" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="O38" t="n">
-        <v>106.7</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1690,7 +1690,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1739,105 +1739,105 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>114.8</v>
+        <v>113.5</v>
       </c>
       <c r="C41" t="n">
-        <v>104.8</v>
+        <v>103.9</v>
       </c>
       <c r="D41" t="n">
-        <v>104.4</v>
+        <v>104</v>
       </c>
       <c r="E41" t="n">
-        <v>108.3</v>
+        <v>108.6</v>
       </c>
       <c r="F41" t="n">
-        <v>107.3</v>
+        <v>106.72</v>
       </c>
       <c r="G41" t="n">
-        <v>108.8</v>
+        <v>108.5</v>
       </c>
       <c r="H41" t="n">
-        <v>110.2</v>
+        <v>109.4</v>
       </c>
       <c r="I41" t="n">
-        <v>107.4</v>
+        <v>107.1</v>
       </c>
       <c r="J41" t="n">
-        <v>105.4</v>
+        <v>105</v>
       </c>
       <c r="K41" t="n">
-        <v>109.7</v>
+        <v>109</v>
       </c>
       <c r="L41" t="n">
-        <v>110.2</v>
+        <v>108.9</v>
       </c>
       <c r="M41" t="n">
-        <v>106.7</v>
+        <v>105.5</v>
       </c>
       <c r="N41" t="n">
         <v>101.2</v>
       </c>
       <c r="O41" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>113.5</v>
+        <v>114.8</v>
       </c>
       <c r="C42" t="n">
-        <v>103.9</v>
+        <v>104.8</v>
       </c>
       <c r="D42" t="n">
-        <v>104</v>
+        <v>104.4</v>
       </c>
       <c r="E42" t="n">
-        <v>108.6</v>
+        <v>108.3</v>
       </c>
       <c r="F42" t="n">
-        <v>106.72</v>
+        <v>107.3</v>
       </c>
       <c r="G42" t="n">
-        <v>108.5</v>
+        <v>108.8</v>
       </c>
       <c r="H42" t="n">
-        <v>109.4</v>
+        <v>110.2</v>
       </c>
       <c r="I42" t="n">
-        <v>107.1</v>
+        <v>107.4</v>
       </c>
       <c r="J42" t="n">
-        <v>105</v>
+        <v>105.4</v>
       </c>
       <c r="K42" t="n">
-        <v>109</v>
+        <v>109.7</v>
       </c>
       <c r="L42" t="n">
-        <v>108.9</v>
+        <v>110.2</v>
       </c>
       <c r="M42" t="n">
-        <v>105.5</v>
+        <v>106.7</v>
       </c>
       <c r="N42" t="n">
         <v>101.2</v>
       </c>
       <c r="O42" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1886,7 +1886,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1935,105 +1935,105 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>109.1</v>
+        <v>109.9</v>
       </c>
       <c r="C45" t="n">
-        <v>101.1</v>
+        <v>102.4</v>
       </c>
       <c r="D45" t="n">
-        <v>102</v>
+        <v>102.4</v>
       </c>
       <c r="E45" t="n">
-        <v>101.7</v>
+        <v>104.1</v>
       </c>
       <c r="F45" t="n">
-        <v>100.2</v>
+        <v>101.6</v>
       </c>
       <c r="G45" t="n">
-        <v>100</v>
+        <v>101.8</v>
       </c>
       <c r="H45" t="n">
-        <v>100.4</v>
+        <v>102.4</v>
       </c>
       <c r="I45" t="n">
-        <v>101.8</v>
+        <v>102.4</v>
       </c>
       <c r="J45" t="n">
-        <v>102.8</v>
+        <v>103.8</v>
       </c>
       <c r="K45" t="n">
-        <v>96.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="L45" t="n">
-        <v>95.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="M45" t="n">
-        <v>99.8</v>
+        <v>101.3</v>
       </c>
       <c r="N45" t="n">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="O45" t="n">
-        <v>91.5</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109.9</v>
+        <v>109.1</v>
       </c>
       <c r="C46" t="n">
-        <v>102.4</v>
+        <v>101.1</v>
       </c>
       <c r="D46" t="n">
-        <v>102.4</v>
+        <v>102</v>
       </c>
       <c r="E46" t="n">
-        <v>104.1</v>
+        <v>101.7</v>
       </c>
       <c r="F46" t="n">
-        <v>101.6</v>
+        <v>100.2</v>
       </c>
       <c r="G46" t="n">
+        <v>100</v>
+      </c>
+      <c r="H46" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="I46" t="n">
         <v>101.8</v>
       </c>
-      <c r="H46" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="I46" t="n">
-        <v>102.4</v>
-      </c>
       <c r="J46" t="n">
-        <v>103.8</v>
+        <v>102.8</v>
       </c>
       <c r="K46" t="n">
-        <v>98.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="L46" t="n">
-        <v>98.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="M46" t="n">
-        <v>101.3</v>
+        <v>99.8</v>
       </c>
       <c r="N46" t="n">
-        <v>98.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="O46" t="n">
-        <v>95.7</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2082,7 +2082,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2131,105 +2131,105 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>107.1</v>
+        <v>108.4</v>
       </c>
       <c r="C49" t="n">
-        <v>101.2</v>
+        <v>101.4</v>
       </c>
       <c r="D49" t="n">
         <v>101.8</v>
       </c>
       <c r="E49" t="n">
-        <v>100.6</v>
+        <v>100</v>
       </c>
       <c r="F49" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="H49" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="I49" t="n">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="J49" t="n">
-        <v>101.6</v>
+        <v>102.3</v>
       </c>
       <c r="K49" t="n">
-        <v>97.7</v>
+        <v>96.8</v>
       </c>
       <c r="L49" t="n">
-        <v>99.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="M49" t="n">
-        <v>99.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="N49" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="O49" t="n">
-        <v>94.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>108.4</v>
+        <v>107.1</v>
       </c>
       <c r="C50" t="n">
-        <v>101.4</v>
+        <v>101.2</v>
       </c>
       <c r="D50" t="n">
         <v>101.8</v>
       </c>
       <c r="E50" t="n">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="F50" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="G50" t="n">
-        <v>100.5</v>
+        <v>100.7</v>
       </c>
       <c r="H50" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="I50" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="J50" t="n">
-        <v>102.3</v>
+        <v>101.6</v>
       </c>
       <c r="K50" t="n">
-        <v>96.8</v>
+        <v>97.7</v>
       </c>
       <c r="L50" t="n">
-        <v>97.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="M50" t="n">
-        <v>98.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="N50" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="O50" t="n">
-        <v>93.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2278,7 +2278,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2327,105 +2327,105 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>105.7</v>
+        <v>106</v>
       </c>
       <c r="C53" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D53" t="n">
         <v>101.4</v>
       </c>
       <c r="E53" t="n">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="F53" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="G53" t="n">
-        <v>101.4</v>
+        <v>101.8</v>
       </c>
       <c r="H53" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="I53" t="n">
-        <v>101.8</v>
+        <v>102.1</v>
       </c>
       <c r="J53" t="n">
         <v>101.7</v>
       </c>
       <c r="K53" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="L53" t="n">
-        <v>100</v>
+        <v>101.1</v>
       </c>
       <c r="M53" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="N53" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="O53" t="n">
-        <v>94.90000000000001</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>106</v>
+        <v>105.7</v>
       </c>
       <c r="C54" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="D54" t="n">
         <v>101.4</v>
       </c>
       <c r="E54" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F54" t="n">
         <v>100.4</v>
       </c>
-      <c r="F54" t="n">
-        <v>100.6</v>
-      </c>
       <c r="G54" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="H54" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="I54" t="n">
         <v>101.8</v>
-      </c>
-      <c r="H54" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="I54" t="n">
-        <v>102.1</v>
       </c>
       <c r="J54" t="n">
         <v>101.7</v>
       </c>
       <c r="K54" t="n">
-        <v>98.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="L54" t="n">
-        <v>101.1</v>
+        <v>100</v>
       </c>
       <c r="M54" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="N54" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="O54" t="n">
-        <v>95.5</v>
+        <v>94.90000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2474,7 +2474,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2523,105 +2523,105 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>103.9</v>
+        <v>104.5</v>
       </c>
       <c r="C57" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="D57" t="n">
-        <v>100.4</v>
+        <v>100.8</v>
       </c>
       <c r="E57" t="n">
-        <v>93.3</v>
+        <v>98.2</v>
       </c>
       <c r="F57" t="n">
-        <v>97.7</v>
+        <v>98.8</v>
       </c>
       <c r="G57" t="n">
-        <v>98.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>96.7</v>
+        <v>98.2</v>
       </c>
       <c r="I57" t="n">
-        <v>100.6</v>
+        <v>101.1</v>
       </c>
       <c r="J57" t="n">
-        <v>101</v>
+        <v>100.5</v>
       </c>
       <c r="K57" t="n">
-        <v>93.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="L57" t="n">
-        <v>96.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="M57" t="n">
-        <v>98.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="N57" t="n">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="O57" t="n">
-        <v>87.2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>104.5</v>
+        <v>103.9</v>
       </c>
       <c r="C58" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="D58" t="n">
-        <v>100.8</v>
+        <v>100.4</v>
       </c>
       <c r="E58" t="n">
-        <v>98.2</v>
+        <v>93.3</v>
       </c>
       <c r="F58" t="n">
-        <v>98.8</v>
+        <v>97.7</v>
       </c>
       <c r="G58" t="n">
-        <v>99.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="H58" t="n">
-        <v>98.2</v>
+        <v>96.7</v>
       </c>
       <c r="I58" t="n">
-        <v>101.1</v>
+        <v>100.6</v>
       </c>
       <c r="J58" t="n">
-        <v>100.5</v>
+        <v>101</v>
       </c>
       <c r="K58" t="n">
-        <v>95.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="L58" t="n">
-        <v>97.09999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="M58" t="n">
-        <v>99.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="N58" t="n">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="O58" t="n">
-        <v>90</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2670,7 +2670,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2719,105 +2719,105 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>103.3</v>
+        <v>103.6</v>
       </c>
       <c r="C61" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>100.5</v>
+        <v>100.36</v>
       </c>
       <c r="E61" t="n">
         <v>96.2</v>
       </c>
       <c r="F61" t="n">
-        <v>99.90000000000001</v>
+        <v>99.16</v>
       </c>
       <c r="G61" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="H61" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="I61" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>97</v>
+      </c>
+      <c r="L61" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="M61" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="H61" t="n">
-        <v>100</v>
-      </c>
-      <c r="I61" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="J61" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="K61" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="L61" t="n">
-        <v>97</v>
-      </c>
-      <c r="M61" t="n">
-        <v>99</v>
-      </c>
       <c r="N61" t="n">
-        <v>99</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="O61" t="n">
-        <v>98.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>103.6</v>
+        <v>103.3</v>
       </c>
       <c r="C62" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="D62" t="n">
-        <v>100.36</v>
+        <v>100.5</v>
       </c>
       <c r="E62" t="n">
         <v>96.2</v>
       </c>
       <c r="F62" t="n">
-        <v>99.16</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>98.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H62" t="n">
-        <v>99.06</v>
+        <v>100</v>
       </c>
       <c r="I62" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="K62" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="L62" t="n">
         <v>97</v>
       </c>
-      <c r="L62" t="n">
-        <v>95.40000000000001</v>
-      </c>
       <c r="M62" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="N62" t="n">
-        <v>98.81999999999999</v>
+        <v>99</v>
       </c>
       <c r="O62" t="n">
-        <v>95.5</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2866,7 +2866,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2915,105 +2915,105 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>104</v>
+        <v>103.5</v>
       </c>
       <c r="C65" t="n">
-        <v>103.1</v>
+        <v>101.5</v>
       </c>
       <c r="D65" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="E65" t="n">
-        <v>103.5</v>
+        <v>101.9</v>
       </c>
       <c r="F65" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="G65" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="H65" t="n">
         <v>106.5</v>
       </c>
-      <c r="G65" t="n">
-        <v>105.9</v>
-      </c>
-      <c r="H65" t="n">
-        <v>109</v>
-      </c>
       <c r="I65" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J65" t="n">
-        <v>102.1</v>
+        <v>101.6</v>
       </c>
       <c r="K65" t="n">
-        <v>112.4</v>
+        <v>108.7</v>
       </c>
       <c r="L65" t="n">
-        <v>108.1</v>
+        <v>105.6</v>
       </c>
       <c r="M65" t="n">
-        <v>103.7</v>
+        <v>102.7</v>
       </c>
       <c r="N65" t="n">
-        <v>100.7</v>
+        <v>100.3</v>
       </c>
       <c r="O65" t="n">
-        <v>123.5</v>
+        <v>116.4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B66" t="n">
+        <v>104</v>
+      </c>
+      <c r="C66" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="E66" t="n">
         <v>103.5</v>
       </c>
-      <c r="C66" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="D66" t="n">
-        <v>101</v>
-      </c>
-      <c r="E66" t="n">
-        <v>101.9</v>
-      </c>
       <c r="F66" t="n">
-        <v>104.7</v>
+        <v>106.5</v>
       </c>
       <c r="G66" t="n">
-        <v>103.4</v>
+        <v>105.9</v>
       </c>
       <c r="H66" t="n">
-        <v>106.5</v>
+        <v>109</v>
       </c>
       <c r="I66" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J66" t="n">
-        <v>101.6</v>
+        <v>102.1</v>
       </c>
       <c r="K66" t="n">
-        <v>108.7</v>
+        <v>112.4</v>
       </c>
       <c r="L66" t="n">
-        <v>105.6</v>
+        <v>108.1</v>
       </c>
       <c r="M66" t="n">
-        <v>102.7</v>
+        <v>103.7</v>
       </c>
       <c r="N66" t="n">
-        <v>100.3</v>
+        <v>100.7</v>
       </c>
       <c r="O66" t="n">
-        <v>116.4</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3062,7 +3062,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3111,105 +3111,105 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>104.8</v>
+        <v>104.6</v>
       </c>
       <c r="C69" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="D69" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="E69" t="n">
-        <v>107.8</v>
+        <v>105.3</v>
       </c>
       <c r="F69" t="n">
-        <v>105.4</v>
+        <v>105.2</v>
       </c>
       <c r="G69" t="n">
-        <v>111</v>
+        <v>108.7</v>
       </c>
       <c r="H69" t="n">
-        <v>107.2</v>
+        <v>106.9</v>
       </c>
       <c r="I69" t="n">
-        <v>103.7</v>
+        <v>103.4</v>
       </c>
       <c r="J69" t="n">
-        <v>102.3</v>
+        <v>102.1</v>
       </c>
       <c r="K69" t="n">
-        <v>109.1</v>
+        <v>108.7</v>
       </c>
       <c r="L69" t="n">
-        <v>111.8</v>
+        <v>110.8</v>
       </c>
       <c r="M69" t="n">
-        <v>101.5</v>
+        <v>103.2</v>
       </c>
       <c r="N69" t="n">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="O69" t="n">
-        <v>108.4</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>104.6</v>
+        <v>104.8</v>
       </c>
       <c r="C70" t="n">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="D70" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="E70" t="n">
-        <v>105.3</v>
+        <v>107.8</v>
       </c>
       <c r="F70" t="n">
-        <v>105.2</v>
+        <v>105.4</v>
       </c>
       <c r="G70" t="n">
-        <v>108.7</v>
+        <v>111</v>
       </c>
       <c r="H70" t="n">
-        <v>106.9</v>
+        <v>107.2</v>
       </c>
       <c r="I70" t="n">
-        <v>103.4</v>
+        <v>103.7</v>
       </c>
       <c r="J70" t="n">
-        <v>102.1</v>
+        <v>102.3</v>
       </c>
       <c r="K70" t="n">
-        <v>108.7</v>
+        <v>109.1</v>
       </c>
       <c r="L70" t="n">
-        <v>110.8</v>
+        <v>111.8</v>
       </c>
       <c r="M70" t="n">
-        <v>103.2</v>
+        <v>101.5</v>
       </c>
       <c r="N70" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="O70" t="n">
-        <v>109.5</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B71" t="n">

--- a/data_quarter/zb/价格指数/固定资产投资价格指数_当季（上年同季=100）(-2018).xlsx
+++ b/data_quarter/zb/价格指数/固定资产投资价格指数_当季（上年同季=100）(-2018).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -711,7 +711,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2003年B</t>
+          <t>2003年C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -721,11 +721,11 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>101.4</v>
+        <v>102.4</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>102.9</v>
+        <v>104.7</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -733,14 +733,14 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2003年C</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -750,11 +750,11 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>102.4</v>
+        <v>101.4</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>104.7</v>
+        <v>102.9</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -762,7 +762,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="O10" t="inlineStr"/>
     </row>
@@ -827,21 +827,21 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>102.9</v>
+        <v>103.7</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>106.1</v>
+        <v>104.7</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>109.2</v>
+        <v>106.7</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -849,28 +849,28 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>103.7</v>
+        <v>102.9</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>104.7</v>
+        <v>106.1</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>106.7</v>
+        <v>109.2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -878,7 +878,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="O14" t="inlineStr"/>
     </row>
@@ -943,17 +943,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
@@ -965,24 +965,24 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
@@ -994,7 +994,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="O18" t="inlineStr"/>
     </row>
@@ -1059,21 +1059,21 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>103.3</v>
+        <v>103.12</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>101.4</v>
+        <v>102.16</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>101.1</v>
+        <v>102.26</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1081,28 +1081,28 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>100.5</v>
+        <v>101.1</v>
       </c>
       <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>103.12</v>
+        <v>103.3</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>102.16</v>
+        <v>101.4</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>102.26</v>
+        <v>101.1</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1110,7 +1110,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>101.1</v>
+        <v>100.5</v>
       </c>
       <c r="O22" t="inlineStr"/>
     </row>
@@ -1175,21 +1175,21 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>103.9</v>
+        <v>104.6</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>103.5</v>
+        <v>104</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>104.6</v>
+        <v>105.3</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1197,28 +1197,28 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>104.6</v>
+        <v>103.9</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>104</v>
+        <v>103.5</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>105.3</v>
+        <v>104.6</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1226,7 +1226,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="O26" t="inlineStr"/>
     </row>
@@ -1291,21 +1291,21 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>105.2</v>
+        <v>105.9</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>111.3</v>
+        <v>111.1</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>116.7</v>
+        <v>116.2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1313,28 +1313,28 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>100.9</v>
+        <v>100.6</v>
       </c>
       <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>105.9</v>
+        <v>105.2</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>111.1</v>
+        <v>111.3</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>116.2</v>
+        <v>116.7</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>100.6</v>
+        <v>100.9</v>
       </c>
       <c r="O30" t="inlineStr"/>
     </row>
@@ -1407,21 +1407,21 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>101.9</v>
+        <v>102.5</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>96.09999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>94.09999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1429,28 +1429,28 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>97.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>102.5</v>
+        <v>101.9</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>96.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>94.7</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1458,7 +1458,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>96.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="O34" t="inlineStr"/>
     </row>
@@ -1543,11 +1543,11 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.9</v>
+        <v>109.9</v>
       </c>
       <c r="C37" t="n">
         <v>102.7</v>
@@ -1556,47 +1556,47 @@
         <v>103.2</v>
       </c>
       <c r="E37" t="n">
-        <v>106.8</v>
+        <v>104.9</v>
       </c>
       <c r="F37" t="n">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="G37" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="I37" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="L37" t="n">
         <v>102.5</v>
       </c>
-      <c r="H37" t="n">
-        <v>104.8</v>
-      </c>
-      <c r="I37" t="n">
-        <v>105.3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="K37" t="n">
-        <v>104.5</v>
-      </c>
-      <c r="L37" t="n">
-        <v>100.7</v>
-      </c>
       <c r="M37" t="n">
-        <v>103</v>
+        <v>104.1</v>
       </c>
       <c r="N37" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="O37" t="n">
-        <v>106.7</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>109.9</v>
+        <v>107.9</v>
       </c>
       <c r="C38" t="n">
         <v>102.7</v>
@@ -1605,37 +1605,37 @@
         <v>103.2</v>
       </c>
       <c r="E38" t="n">
-        <v>104.9</v>
+        <v>106.8</v>
       </c>
       <c r="F38" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="G38" t="n">
-        <v>103.4</v>
+        <v>102.5</v>
       </c>
       <c r="H38" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="I38" t="n">
-        <v>103.2</v>
+        <v>105.3</v>
       </c>
       <c r="J38" t="n">
-        <v>102.6</v>
+        <v>102.4</v>
       </c>
       <c r="K38" t="n">
-        <v>103.8</v>
+        <v>104.5</v>
       </c>
       <c r="L38" t="n">
-        <v>102.5</v>
+        <v>100.7</v>
       </c>
       <c r="M38" t="n">
-        <v>104.1</v>
+        <v>103</v>
       </c>
       <c r="N38" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="O38" t="n">
-        <v>104.4</v>
+        <v>106.7</v>
       </c>
     </row>
     <row r="39">
@@ -1739,99 +1739,99 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>113.5</v>
+        <v>114.8</v>
       </c>
       <c r="C41" t="n">
-        <v>103.9</v>
+        <v>104.8</v>
       </c>
       <c r="D41" t="n">
-        <v>104</v>
+        <v>104.4</v>
       </c>
       <c r="E41" t="n">
-        <v>108.6</v>
+        <v>108.3</v>
       </c>
       <c r="F41" t="n">
-        <v>106.72</v>
+        <v>107.3</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5</v>
+        <v>108.8</v>
       </c>
       <c r="H41" t="n">
-        <v>109.4</v>
+        <v>110.2</v>
       </c>
       <c r="I41" t="n">
-        <v>107.1</v>
+        <v>107.4</v>
       </c>
       <c r="J41" t="n">
-        <v>105</v>
+        <v>105.4</v>
       </c>
       <c r="K41" t="n">
-        <v>109</v>
+        <v>109.7</v>
       </c>
       <c r="L41" t="n">
-        <v>108.9</v>
+        <v>110.2</v>
       </c>
       <c r="M41" t="n">
-        <v>105.5</v>
+        <v>106.7</v>
       </c>
       <c r="N41" t="n">
         <v>101.2</v>
       </c>
       <c r="O41" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>114.8</v>
+        <v>113.5</v>
       </c>
       <c r="C42" t="n">
-        <v>104.8</v>
+        <v>103.9</v>
       </c>
       <c r="D42" t="n">
-        <v>104.4</v>
+        <v>104</v>
       </c>
       <c r="E42" t="n">
-        <v>108.3</v>
+        <v>108.6</v>
       </c>
       <c r="F42" t="n">
-        <v>107.3</v>
+        <v>106.72</v>
       </c>
       <c r="G42" t="n">
-        <v>108.8</v>
+        <v>108.5</v>
       </c>
       <c r="H42" t="n">
-        <v>110.2</v>
+        <v>109.4</v>
       </c>
       <c r="I42" t="n">
-        <v>107.4</v>
+        <v>107.1</v>
       </c>
       <c r="J42" t="n">
-        <v>105.4</v>
+        <v>105</v>
       </c>
       <c r="K42" t="n">
-        <v>109.7</v>
+        <v>109</v>
       </c>
       <c r="L42" t="n">
-        <v>110.2</v>
+        <v>108.9</v>
       </c>
       <c r="M42" t="n">
-        <v>106.7</v>
+        <v>105.5</v>
       </c>
       <c r="N42" t="n">
         <v>101.2</v>
       </c>
       <c r="O42" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
@@ -1935,99 +1935,99 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>109.9</v>
+        <v>109.1</v>
       </c>
       <c r="C45" t="n">
-        <v>102.4</v>
+        <v>101.1</v>
       </c>
       <c r="D45" t="n">
-        <v>102.4</v>
+        <v>102</v>
       </c>
       <c r="E45" t="n">
-        <v>104.1</v>
+        <v>101.7</v>
       </c>
       <c r="F45" t="n">
-        <v>101.6</v>
+        <v>100.2</v>
       </c>
       <c r="G45" t="n">
+        <v>100</v>
+      </c>
+      <c r="H45" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="I45" t="n">
         <v>101.8</v>
       </c>
-      <c r="H45" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="I45" t="n">
-        <v>102.4</v>
-      </c>
       <c r="J45" t="n">
-        <v>103.8</v>
+        <v>102.8</v>
       </c>
       <c r="K45" t="n">
-        <v>98.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="L45" t="n">
-        <v>98.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="M45" t="n">
-        <v>101.3</v>
+        <v>99.8</v>
       </c>
       <c r="N45" t="n">
-        <v>98.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="O45" t="n">
-        <v>95.7</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109.1</v>
+        <v>109.9</v>
       </c>
       <c r="C46" t="n">
-        <v>101.1</v>
+        <v>102.4</v>
       </c>
       <c r="D46" t="n">
-        <v>102</v>
+        <v>102.4</v>
       </c>
       <c r="E46" t="n">
-        <v>101.7</v>
+        <v>104.1</v>
       </c>
       <c r="F46" t="n">
-        <v>100.2</v>
+        <v>101.6</v>
       </c>
       <c r="G46" t="n">
-        <v>100</v>
+        <v>101.8</v>
       </c>
       <c r="H46" t="n">
-        <v>100.4</v>
+        <v>102.4</v>
       </c>
       <c r="I46" t="n">
-        <v>101.8</v>
+        <v>102.4</v>
       </c>
       <c r="J46" t="n">
-        <v>102.8</v>
+        <v>103.8</v>
       </c>
       <c r="K46" t="n">
-        <v>96.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="L46" t="n">
-        <v>95.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="M46" t="n">
-        <v>99.8</v>
+        <v>101.3</v>
       </c>
       <c r="N46" t="n">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="O46" t="n">
-        <v>91.5</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="47">
@@ -2131,99 +2131,99 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>108.4</v>
+        <v>107.1</v>
       </c>
       <c r="C49" t="n">
-        <v>101.4</v>
+        <v>101.2</v>
       </c>
       <c r="D49" t="n">
         <v>101.8</v>
       </c>
       <c r="E49" t="n">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="F49" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="G49" t="n">
-        <v>100.5</v>
+        <v>100.7</v>
       </c>
       <c r="H49" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="I49" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="J49" t="n">
-        <v>102.3</v>
+        <v>101.6</v>
       </c>
       <c r="K49" t="n">
-        <v>96.8</v>
+        <v>97.7</v>
       </c>
       <c r="L49" t="n">
-        <v>97.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="M49" t="n">
-        <v>98.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="N49" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="O49" t="n">
-        <v>93.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>107.1</v>
+        <v>108.4</v>
       </c>
       <c r="C50" t="n">
-        <v>101.2</v>
+        <v>101.4</v>
       </c>
       <c r="D50" t="n">
         <v>101.8</v>
       </c>
       <c r="E50" t="n">
-        <v>100.6</v>
+        <v>100</v>
       </c>
       <c r="F50" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="H50" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="I50" t="n">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="J50" t="n">
-        <v>101.6</v>
+        <v>102.3</v>
       </c>
       <c r="K50" t="n">
-        <v>97.7</v>
+        <v>96.8</v>
       </c>
       <c r="L50" t="n">
-        <v>99.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="M50" t="n">
-        <v>99.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="N50" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="O50" t="n">
-        <v>94.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -2327,99 +2327,99 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>106</v>
+        <v>105.7</v>
       </c>
       <c r="C53" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="D53" t="n">
         <v>101.4</v>
       </c>
       <c r="E53" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F53" t="n">
         <v>100.4</v>
       </c>
-      <c r="F53" t="n">
-        <v>100.6</v>
-      </c>
       <c r="G53" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="H53" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="I53" t="n">
         <v>101.8</v>
-      </c>
-      <c r="H53" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="I53" t="n">
-        <v>102.1</v>
       </c>
       <c r="J53" t="n">
         <v>101.7</v>
       </c>
       <c r="K53" t="n">
-        <v>98.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="L53" t="n">
-        <v>101.1</v>
+        <v>100</v>
       </c>
       <c r="M53" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="N53" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="O53" t="n">
-        <v>95.5</v>
+        <v>94.90000000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>105.7</v>
+        <v>106</v>
       </c>
       <c r="C54" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D54" t="n">
         <v>101.4</v>
       </c>
       <c r="E54" t="n">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="F54" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="G54" t="n">
-        <v>101.4</v>
+        <v>101.8</v>
       </c>
       <c r="H54" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="I54" t="n">
-        <v>101.8</v>
+        <v>102.1</v>
       </c>
       <c r="J54" t="n">
         <v>101.7</v>
       </c>
       <c r="K54" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="L54" t="n">
-        <v>100</v>
+        <v>101.1</v>
       </c>
       <c r="M54" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="N54" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="O54" t="n">
-        <v>94.90000000000001</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="55">
@@ -2523,99 +2523,99 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>104.5</v>
+        <v>103.9</v>
       </c>
       <c r="C57" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="D57" t="n">
-        <v>100.8</v>
+        <v>100.4</v>
       </c>
       <c r="E57" t="n">
-        <v>98.2</v>
+        <v>93.3</v>
       </c>
       <c r="F57" t="n">
-        <v>98.8</v>
+        <v>97.7</v>
       </c>
       <c r="G57" t="n">
-        <v>99.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="H57" t="n">
-        <v>98.2</v>
+        <v>96.7</v>
       </c>
       <c r="I57" t="n">
-        <v>101.1</v>
+        <v>100.6</v>
       </c>
       <c r="J57" t="n">
-        <v>100.5</v>
+        <v>101</v>
       </c>
       <c r="K57" t="n">
-        <v>95.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="L57" t="n">
-        <v>97.09999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="M57" t="n">
-        <v>99.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="N57" t="n">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="O57" t="n">
-        <v>90</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>103.9</v>
+        <v>104.5</v>
       </c>
       <c r="C58" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="D58" t="n">
-        <v>100.4</v>
+        <v>100.8</v>
       </c>
       <c r="E58" t="n">
-        <v>93.3</v>
+        <v>98.2</v>
       </c>
       <c r="F58" t="n">
-        <v>97.7</v>
+        <v>98.8</v>
       </c>
       <c r="G58" t="n">
-        <v>98.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>96.7</v>
+        <v>98.2</v>
       </c>
       <c r="I58" t="n">
-        <v>100.6</v>
+        <v>101.1</v>
       </c>
       <c r="J58" t="n">
-        <v>101</v>
+        <v>100.5</v>
       </c>
       <c r="K58" t="n">
-        <v>93.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="L58" t="n">
-        <v>96.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="M58" t="n">
-        <v>98.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="N58" t="n">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="O58" t="n">
-        <v>87.2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
@@ -2719,99 +2719,99 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>103.6</v>
+        <v>103.3</v>
       </c>
       <c r="C61" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="D61" t="n">
-        <v>100.36</v>
+        <v>100.5</v>
       </c>
       <c r="E61" t="n">
         <v>96.2</v>
       </c>
       <c r="F61" t="n">
-        <v>99.16</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>98.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>99.06</v>
+        <v>100</v>
       </c>
       <c r="I61" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J61" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="K61" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="L61" t="n">
         <v>97</v>
       </c>
-      <c r="L61" t="n">
-        <v>95.40000000000001</v>
-      </c>
       <c r="M61" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="N61" t="n">
-        <v>98.81999999999999</v>
+        <v>99</v>
       </c>
       <c r="O61" t="n">
-        <v>95.5</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>103.3</v>
+        <v>103.6</v>
       </c>
       <c r="C62" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>100.5</v>
+        <v>100.36</v>
       </c>
       <c r="E62" t="n">
         <v>96.2</v>
       </c>
       <c r="F62" t="n">
-        <v>99.90000000000001</v>
+        <v>99.16</v>
       </c>
       <c r="G62" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="H62" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="I62" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J62" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>97</v>
+      </c>
+      <c r="L62" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="M62" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="H62" t="n">
-        <v>100</v>
-      </c>
-      <c r="I62" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="J62" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="K62" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="L62" t="n">
-        <v>97</v>
-      </c>
-      <c r="M62" t="n">
-        <v>99</v>
-      </c>
       <c r="N62" t="n">
-        <v>99</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="O62" t="n">
-        <v>98.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="63">
@@ -2915,99 +2915,99 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B65" t="n">
+        <v>104</v>
+      </c>
+      <c r="C65" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="E65" t="n">
         <v>103.5</v>
       </c>
-      <c r="C65" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="D65" t="n">
-        <v>101</v>
-      </c>
-      <c r="E65" t="n">
-        <v>101.9</v>
-      </c>
       <c r="F65" t="n">
-        <v>104.7</v>
+        <v>106.5</v>
       </c>
       <c r="G65" t="n">
-        <v>103.4</v>
+        <v>105.9</v>
       </c>
       <c r="H65" t="n">
-        <v>106.5</v>
+        <v>109</v>
       </c>
       <c r="I65" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J65" t="n">
-        <v>101.6</v>
+        <v>102.1</v>
       </c>
       <c r="K65" t="n">
-        <v>108.7</v>
+        <v>112.4</v>
       </c>
       <c r="L65" t="n">
-        <v>105.6</v>
+        <v>108.1</v>
       </c>
       <c r="M65" t="n">
-        <v>102.7</v>
+        <v>103.7</v>
       </c>
       <c r="N65" t="n">
-        <v>100.3</v>
+        <v>100.7</v>
       </c>
       <c r="O65" t="n">
-        <v>116.4</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>104</v>
+        <v>103.5</v>
       </c>
       <c r="C66" t="n">
-        <v>103.1</v>
+        <v>101.5</v>
       </c>
       <c r="D66" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="E66" t="n">
-        <v>103.5</v>
+        <v>101.9</v>
       </c>
       <c r="F66" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="G66" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="H66" t="n">
         <v>106.5</v>
       </c>
-      <c r="G66" t="n">
-        <v>105.9</v>
-      </c>
-      <c r="H66" t="n">
-        <v>109</v>
-      </c>
       <c r="I66" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J66" t="n">
-        <v>102.1</v>
+        <v>101.6</v>
       </c>
       <c r="K66" t="n">
-        <v>112.4</v>
+        <v>108.7</v>
       </c>
       <c r="L66" t="n">
-        <v>108.1</v>
+        <v>105.6</v>
       </c>
       <c r="M66" t="n">
-        <v>103.7</v>
+        <v>102.7</v>
       </c>
       <c r="N66" t="n">
-        <v>100.7</v>
+        <v>100.3</v>
       </c>
       <c r="O66" t="n">
-        <v>123.5</v>
+        <v>116.4</v>
       </c>
     </row>
     <row r="67">
@@ -3111,99 +3111,99 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>104.6</v>
+        <v>104.8</v>
       </c>
       <c r="C69" t="n">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="D69" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="E69" t="n">
-        <v>105.3</v>
+        <v>107.8</v>
       </c>
       <c r="F69" t="n">
-        <v>105.2</v>
+        <v>105.4</v>
       </c>
       <c r="G69" t="n">
-        <v>108.7</v>
+        <v>111</v>
       </c>
       <c r="H69" t="n">
-        <v>106.9</v>
+        <v>107.2</v>
       </c>
       <c r="I69" t="n">
-        <v>103.4</v>
+        <v>103.7</v>
       </c>
       <c r="J69" t="n">
-        <v>102.1</v>
+        <v>102.3</v>
       </c>
       <c r="K69" t="n">
-        <v>108.7</v>
+        <v>109.1</v>
       </c>
       <c r="L69" t="n">
-        <v>110.8</v>
+        <v>111.8</v>
       </c>
       <c r="M69" t="n">
-        <v>103.2</v>
+        <v>101.5</v>
       </c>
       <c r="N69" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="O69" t="n">
-        <v>109.5</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>104.8</v>
+        <v>104.6</v>
       </c>
       <c r="C70" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="D70" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="E70" t="n">
-        <v>107.8</v>
+        <v>105.3</v>
       </c>
       <c r="F70" t="n">
-        <v>105.4</v>
+        <v>105.2</v>
       </c>
       <c r="G70" t="n">
-        <v>111</v>
+        <v>108.7</v>
       </c>
       <c r="H70" t="n">
-        <v>107.2</v>
+        <v>106.9</v>
       </c>
       <c r="I70" t="n">
-        <v>103.7</v>
+        <v>103.4</v>
       </c>
       <c r="J70" t="n">
-        <v>102.3</v>
+        <v>102.1</v>
       </c>
       <c r="K70" t="n">
-        <v>109.1</v>
+        <v>108.7</v>
       </c>
       <c r="L70" t="n">
-        <v>111.8</v>
+        <v>110.8</v>
       </c>
       <c r="M70" t="n">
-        <v>101.5</v>
+        <v>103.2</v>
       </c>
       <c r="N70" t="n">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="O70" t="n">
-        <v>108.4</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="71">
